--- a/docs/standeskommission.xlsx
+++ b/docs/standeskommission.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender ratio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D976FC-91AA-4170-AC8D-3E6E39223A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2562CA-34EC-4383-B703-DB93C4CF5D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{669C7B45-B26B-4B76-A8C9-B2BF60283C86}"/>
+    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{669C7B45-B26B-4B76-A8C9-B2BF60283C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -658,21 +658,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB2D094-259F-4BDA-9CCC-AC85399FAC35}">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="E234" sqref="E234"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -712,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -732,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2025</v>
       </c>
@@ -772,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -792,7 +792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -812,7 +812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -832,7 +832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2024</v>
       </c>
@@ -852,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -892,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
@@ -912,7 +912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -932,7 +932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2024</v>
       </c>
@@ -952,7 +952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2024</v>
       </c>
@@ -972,7 +972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2023</v>
       </c>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2023</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2023</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2023</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2023</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2019</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2019</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2019</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2019</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2019</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2019</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2017</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2017</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2017</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2017</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2017</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2017</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2017</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2016</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2016</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2016</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2016</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2016</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2016</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2016</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2014</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2014</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2014</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2014</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2014</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2014</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2014</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2013</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2013</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2013</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2013</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2013</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2013</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2013</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2012</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2012</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2012</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2012</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2012</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2012</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2012</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2011</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2011</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2011</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2011</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2011</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2011</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2011</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2010</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2010</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2010</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2010</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2010</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2010</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2010</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2009</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2009</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2009</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2009</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2009</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2009</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2009</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2008</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2008</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2008</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2008</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2008</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2008</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2008</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2007</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2007</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2007</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2007</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2007</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2007</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2007</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2006</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2006</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2006</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2006</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2006</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2006</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2006</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2005</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2005</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2005</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2005</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2005</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2005</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2005</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2004</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2004</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2004</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2004</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2004</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2004</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2004</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2003</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2003</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2003</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2003</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2003</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2003</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2003</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2002</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2002</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2002</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2002</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2002</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2002</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2002</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2001</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2001</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2001</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2001</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2001</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2001</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2001</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2000</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2000</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2000</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2000</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2000</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2000</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2000</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1999</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1999</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1999</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1999</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1999</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1999</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1999</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1998</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1998</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1998</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1998</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1998</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1998</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1998</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1997</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1997</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1997</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1997</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1997</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1997</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1997</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1996</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1996</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1996</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1996</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1996</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1996</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1996</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1995</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1995</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1995</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1995</v>
       </c>
@@ -4966,13 +4966,13 @@
         <v>35</v>
       </c>
       <c r="E215" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F215" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1995</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1995</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1995</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1995</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1995</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1994</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1994</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1994</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1994</v>
       </c>
@@ -5146,13 +5146,13 @@
         <v>35</v>
       </c>
       <c r="E224" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F224" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1994</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1994</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1994</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1994</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1994</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1993</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1993</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1993</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1993</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1993</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1993</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1993</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1993</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1993</v>
       </c>
